--- a/data/Early Career Fac May2022.xlsx
+++ b/data/Early Career Fac May2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterhiggins/Documents/RCode/early_career_faculty/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2D22D0-3AE9-AF40-B5C5-B76DCBC3DD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E10E0-1A33-514F-A683-F553166158A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23560" yWindow="8800" windowWidth="21600" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="278">
   <si>
     <t>Name</t>
   </si>
@@ -818,16 +818,43 @@
     <t>NIH KL2</t>
   </si>
   <si>
-    <t>VA HSR&amp;D IIR</t>
-  </si>
-  <si>
-    <t>VA HSR&amp;D Virtual Care CORE RRP</t>
-  </si>
-  <si>
-    <t>VA QUERI PII Startup</t>
-  </si>
-  <si>
-    <t>K23</t>
+    <t>VA CDA</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Mazumder, Nikilesh</t>
+  </si>
+  <si>
+    <t>I should find out about score in October and then funding starting in April if funded.</t>
+  </si>
+  <si>
+    <t>K resubmission July 2022, Score Oct, Fund April 2023</t>
+  </si>
+  <si>
+    <t>Resubmit R01 Oct or Feb, Resub R with Wisc in Dec, K-related R sub in June, score Oct22</t>
+  </si>
+  <si>
+    <t>Submit R01 Oct22 or Feb23</t>
+  </si>
+  <si>
+    <t>CCF CDA submitted in July 2022 -&gt; hear back in November 2022</t>
+  </si>
+  <si>
+    <t>Rebuttal letter for this K23 cycle due August 15</t>
+  </si>
+  <si>
+    <t>Submission K23 October 2022 -&gt; hear back in March 2023 -&gt; Resubmit if necessary in July 2023</t>
+  </si>
+  <si>
+    <t>AGA RSA November 2022 -&gt; hear back in April 2023</t>
+  </si>
+  <si>
+    <t>Rebuttal letter for this K23 cycle due August 15, CCF CDA score  in Nov22, Submission K23 October 2022 -&gt; hear back in March 2023 -&gt; Resubmit if necessary in July 2023, AGA RSA November 2022 -&gt; hear back in April 2023</t>
+  </si>
+  <si>
+    <t>New K08 subm 6/22, score Nov 22, start funding Apr 23</t>
   </si>
 </sst>
 </file>
@@ -837,7 +864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -873,6 +900,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -894,7 +933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -958,23 +997,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,43 +1033,49 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3500,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25382A1C-1D0F-5146-80FF-DF6BAF2EBCFA}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3515,151 +3571,157 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="F1" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="17">
+        <v>44378</v>
+      </c>
+      <c r="E2" s="17">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="17">
+        <v>44927</v>
+      </c>
+      <c r="E3" s="17">
+        <v>47118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D4" s="17">
         <v>42186</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E4" s="17">
         <v>43281</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="23">
-        <v>43282</v>
-      </c>
-      <c r="E3" s="23">
-        <v>44377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="C5" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="17">
+        <v>42917</v>
+      </c>
+      <c r="E5" s="17">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="23">
-        <v>44682</v>
-      </c>
-      <c r="E4" s="23">
-        <v>45991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="23">
-        <v>44256</v>
-      </c>
-      <c r="E5" s="23">
-        <v>45199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="23">
-        <v>44470</v>
-      </c>
-      <c r="E6" s="23">
-        <v>44834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="17">
+        <v>44104</v>
+      </c>
+      <c r="E6" s="17">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D7" s="17">
-        <v>44378</v>
+        <v>44013</v>
       </c>
       <c r="E7" s="17">
         <v>45107</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="17">
+        <v>44013</v>
+      </c>
+      <c r="E8" s="17">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="D8" s="17">
-        <v>42186</v>
-      </c>
-      <c r="E8" s="17">
-        <v>43281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="D9" s="17">
         <v>42917</v>
@@ -3667,129 +3729,144 @@
       <c r="E9" s="17">
         <v>44012</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D10" s="17">
-        <v>44104</v>
+        <v>43891</v>
       </c>
       <c r="E10" s="17">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D11" s="17">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="E11" s="17">
         <v>45107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>259</v>
       </c>
       <c r="D12" s="17">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="E12" s="17">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D13" s="17">
-        <v>42917</v>
+        <v>44563</v>
       </c>
       <c r="E13" s="17">
-        <v>44012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>46386</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D14" s="17">
-        <v>43891</v>
+        <v>43647</v>
       </c>
       <c r="E14" s="17">
-        <v>45716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>44742</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D15" s="17">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="E15" s="17">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>46568</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D16" s="17">
-        <v>44378</v>
+        <v>44013</v>
       </c>
       <c r="E16" s="17">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>44742</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>13</v>
@@ -3798,69 +3875,72 @@
         <v>255</v>
       </c>
       <c r="D17" s="17">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="E17" s="17">
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D18" s="17">
         <v>44743</v>
       </c>
       <c r="E18" s="17">
-        <v>46568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>46477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="17">
+        <v>43282</v>
+      </c>
+      <c r="E19" s="17">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="17">
+        <v>43891</v>
+      </c>
+      <c r="E20" s="17">
+        <v>44620</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="17">
-        <v>44013</v>
-      </c>
-      <c r="E19" s="17">
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="17">
-        <v>43282</v>
-      </c>
-      <c r="E20" s="17">
-        <v>44377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>255</v>
@@ -3871,78 +3951,80 @@
       <c r="E21" s="17">
         <v>44377</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D22" s="17">
-        <v>43891</v>
+        <v>42917</v>
       </c>
       <c r="E22" s="17">
-        <v>44620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>44012</v>
+      </c>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D23" s="17">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="E23" s="17">
-        <v>44377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D24" s="17">
-        <v>42917</v>
+        <v>42186</v>
       </c>
       <c r="E24" s="17">
-        <v>44012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D25" s="17">
         <v>43647</v>
       </c>
       <c r="E25" s="17">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>16</v>
@@ -3954,27 +4036,27 @@
         <v>42186</v>
       </c>
       <c r="E26" s="17">
-        <v>43281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D27" s="17">
-        <v>43647</v>
+        <v>42795</v>
       </c>
       <c r="E27" s="17">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>177</v>
       </c>
@@ -3982,50 +4064,53 @@
         <v>16</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D28" s="17">
-        <v>42186</v>
+        <v>44274</v>
       </c>
       <c r="E28" s="17">
-        <v>42916</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>45350</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D29" s="17">
-        <v>42795</v>
-      </c>
-      <c r="E29" s="24">
-        <v>43889</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>42186</v>
+      </c>
+      <c r="E29" s="17">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D30" s="17">
-        <v>44274</v>
-      </c>
-      <c r="E30" s="24">
-        <v>45350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>42552</v>
+      </c>
+      <c r="E30" s="17">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>173</v>
       </c>
@@ -4033,86 +4118,92 @@
         <v>16</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D31" s="17">
-        <v>42186</v>
-      </c>
-      <c r="E31" s="24">
-        <v>43281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>43282</v>
+      </c>
+      <c r="E31" s="17">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D32" s="17">
-        <v>42552</v>
-      </c>
-      <c r="E32" s="24">
+        <v>42125</v>
+      </c>
+      <c r="E32" s="19">
         <v>43281</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D33" s="17">
-        <v>43282</v>
+        <v>43692</v>
       </c>
       <c r="E33" s="17">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D34" s="17">
-        <v>42125</v>
-      </c>
-      <c r="E34" s="20">
-        <v>43281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>42552</v>
+      </c>
+      <c r="E34" s="17">
+        <v>43646</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D35" s="17">
-        <v>43692</v>
+        <v>43525</v>
       </c>
       <c r="E35" s="17">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>13</v>
@@ -4121,78 +4212,78 @@
         <v>255</v>
       </c>
       <c r="D36" s="17">
-        <v>42552</v>
+        <v>43678</v>
       </c>
       <c r="E36" s="17">
-        <v>43646</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="17">
+        <v>43709</v>
+      </c>
+      <c r="E37" s="17">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="17">
+        <v>44378</v>
+      </c>
+      <c r="E38" s="17">
+        <v>46203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D37" s="17">
-        <v>43525</v>
-      </c>
-      <c r="E37" s="24">
-        <v>44255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="15" t="s">
+      <c r="C39" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="24">
+        <v>44743</v>
+      </c>
+      <c r="E39" s="24">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="17">
-        <v>43678</v>
-      </c>
-      <c r="E38" s="17">
-        <v>44773</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D39" s="17">
-        <v>43709</v>
-      </c>
-      <c r="E39" s="17">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D40" s="17">
-        <v>44378</v>
-      </c>
-      <c r="E40" s="17">
-        <v>46203</v>
+      <c r="C40" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40" s="24">
+        <v>44743</v>
+      </c>
+      <c r="E40" s="24">
+        <v>45838</v>
       </c>
     </row>
   </sheetData>
